--- a/figures/overlap.xlsx
+++ b/figures/overlap.xlsx
@@ -1,6 +1,6 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23029"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\aubre\Documents\BU Research\tbsp_malnutrition\figures\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{B42A0738-7FC7-4BDD-BA44-5C5DD16F869F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7875BA0D-779D-4835-93C8-0D0F40FE69E4}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11020"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11020" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="overlap" sheetId="1" r:id="rId1"/>
@@ -160,7 +160,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.0%"/>
   </numFmts>
@@ -1141,11 +1141,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AT48"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="AV7" sqref="AV7"/>
+    <sheetView tabSelected="1" zoomScale="39" workbookViewId="0">
+      <selection activeCell="C54" sqref="C54"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -7603,7 +7603,7 @@
         <cfvo type="min"/>
         <cfvo type="max"/>
         <color theme="7" tint="0.79998168889431442"/>
-        <color theme="8" tint="0.59999389629810485"/>
+        <color theme="8" tint="0.39997558519241921"/>
       </colorScale>
     </cfRule>
   </conditionalFormatting>

--- a/figures/overlap.xlsx
+++ b/figures/overlap.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\aubre\Documents\BU Research\tbsp_malnutrition\figures\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7875BA0D-779D-4835-93C8-0D0F40FE69E4}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{92769F99-83B4-495B-97BA-B3EE47A38E45}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11020" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1144,8 +1144,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AT48"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="39" workbookViewId="0">
-      <selection activeCell="C54" sqref="C54"/>
+    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="49" workbookViewId="0">
+      <selection activeCell="BB32" sqref="BB32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>

--- a/figures/overlap.xlsx
+++ b/figures/overlap.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\aubre\Documents\BU Research\tbsp_malnutrition\figures\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{92769F99-83B4-495B-97BA-B3EE47A38E45}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DC1CD782-E479-4D50-BBEA-063D40205767}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11020" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -50,12 +50,6 @@
   </si>
   <si>
     <t>Esmail_OD_893</t>
-  </si>
-  <si>
-    <t>Gjoen_OD_10</t>
-  </si>
-  <si>
-    <t>Gjoen_OD_7</t>
   </si>
   <si>
     <t>Gliddon_OD_3</t>
@@ -155,6 +149,12 @@
   </si>
   <si>
     <t>Zak_RISK_16</t>
+  </si>
+  <si>
+    <t>Gjoen_10</t>
+  </si>
+  <si>
+    <t>Gjoen_7</t>
   </si>
 </sst>
 </file>
@@ -1144,8 +1144,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AT48"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="49" workbookViewId="0">
-      <selection activeCell="BB32" sqref="BB32"/>
+    <sheetView tabSelected="1" zoomScale="49" workbookViewId="0">
+      <selection activeCell="B25" sqref="B25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1185,109 +1185,109 @@
         <v>9</v>
       </c>
       <c r="L1" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="M1" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="N1" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="M1" s="7" t="s">
+      <c r="O1" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="N1" s="7" t="s">
+      <c r="P1" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="O1" s="7" t="s">
+      <c r="Q1" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="P1" s="7" t="s">
+      <c r="R1" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="Q1" s="7" t="s">
+      <c r="S1" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="R1" s="7" t="s">
+      <c r="T1" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="S1" s="7" t="s">
+      <c r="U1" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="T1" s="7" t="s">
+      <c r="V1" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="U1" s="7" t="s">
+      <c r="W1" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="V1" s="7" t="s">
+      <c r="X1" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="W1" s="7" t="s">
+      <c r="Y1" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="X1" s="7" t="s">
+      <c r="Z1" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="Y1" s="7" t="s">
+      <c r="AA1" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="Z1" s="7" t="s">
+      <c r="AB1" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="AA1" s="7" t="s">
+      <c r="AC1" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="AB1" s="7" t="s">
+      <c r="AD1" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="AC1" s="7" t="s">
+      <c r="AE1" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="AD1" s="7" t="s">
+      <c r="AF1" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="AE1" s="7" t="s">
+      <c r="AG1" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="AF1" s="7" t="s">
+      <c r="AH1" s="7" t="s">
         <v>30</v>
       </c>
-      <c r="AG1" s="7" t="s">
+      <c r="AI1" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="AH1" s="7" t="s">
+      <c r="AJ1" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="AI1" s="7" t="s">
+      <c r="AK1" s="7" t="s">
         <v>33</v>
       </c>
-      <c r="AJ1" s="7" t="s">
+      <c r="AL1" s="7" t="s">
         <v>34</v>
       </c>
-      <c r="AK1" s="7" t="s">
+      <c r="AM1" s="7" t="s">
         <v>35</v>
       </c>
-      <c r="AL1" s="7" t="s">
+      <c r="AN1" s="7" t="s">
         <v>36</v>
       </c>
-      <c r="AM1" s="7" t="s">
+      <c r="AO1" s="7" t="s">
         <v>37</v>
       </c>
-      <c r="AN1" s="7" t="s">
+      <c r="AP1" s="7" t="s">
         <v>38</v>
       </c>
-      <c r="AO1" s="7" t="s">
+      <c r="AQ1" s="7" t="s">
         <v>39</v>
       </c>
-      <c r="AP1" s="7" t="s">
+      <c r="AR1" s="7" t="s">
         <v>40</v>
       </c>
-      <c r="AQ1" s="7" t="s">
+      <c r="AS1" s="7" t="s">
         <v>41</v>
       </c>
-      <c r="AR1" s="7" t="s">
+      <c r="AT1" s="7" t="s">
         <v>42</v>
-      </c>
-      <c r="AS1" s="7" t="s">
-        <v>43</v>
-      </c>
-      <c r="AT1" s="7" t="s">
-        <v>44</v>
       </c>
     </row>
     <row r="2" spans="1:46" ht="15" thickTop="1" x14ac:dyDescent="0.35">
@@ -2692,7 +2692,7 @@
     </row>
     <row r="12" spans="1:46" x14ac:dyDescent="0.35">
       <c r="A12" s="4" t="s">
-        <v>10</v>
+        <v>43</v>
       </c>
       <c r="B12" s="5">
         <v>0.1</v>
@@ -2832,7 +2832,7 @@
     </row>
     <row r="13" spans="1:46" x14ac:dyDescent="0.35">
       <c r="A13" s="4" t="s">
-        <v>11</v>
+        <v>44</v>
       </c>
       <c r="B13" s="5">
         <v>0.14285714285714299</v>
@@ -2972,7 +2972,7 @@
     </row>
     <row r="14" spans="1:46" x14ac:dyDescent="0.35">
       <c r="A14" s="4" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="B14" s="5">
         <v>0</v>
@@ -3112,7 +3112,7 @@
     </row>
     <row r="15" spans="1:46" x14ac:dyDescent="0.35">
       <c r="A15" s="4" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B15" s="5">
         <v>0.25</v>
@@ -3252,7 +3252,7 @@
     </row>
     <row r="16" spans="1:46" x14ac:dyDescent="0.35">
       <c r="A16" s="4" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="B16" s="5">
         <v>0</v>
@@ -3392,7 +3392,7 @@
     </row>
     <row r="17" spans="1:46" x14ac:dyDescent="0.35">
       <c r="A17" s="4" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="B17" s="5">
         <v>0</v>
@@ -3532,7 +3532,7 @@
     </row>
     <row r="18" spans="1:46" x14ac:dyDescent="0.35">
       <c r="A18" s="4" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="B18" s="5">
         <v>0</v>
@@ -3672,7 +3672,7 @@
     </row>
     <row r="19" spans="1:46" x14ac:dyDescent="0.35">
       <c r="A19" s="4" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="B19" s="5">
         <v>4.1666666666666699E-2</v>
@@ -3812,7 +3812,7 @@
     </row>
     <row r="20" spans="1:46" x14ac:dyDescent="0.35">
       <c r="A20" s="4" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="B20" s="5">
         <v>3.125E-2</v>
@@ -3952,7 +3952,7 @@
     </row>
     <row r="21" spans="1:46" x14ac:dyDescent="0.35">
       <c r="A21" s="4" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="B21" s="5">
         <v>0.11111111111111099</v>
@@ -4092,7 +4092,7 @@
     </row>
     <row r="22" spans="1:46" x14ac:dyDescent="0.35">
       <c r="A22" s="4" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="B22" s="5">
         <v>0</v>
@@ -4232,7 +4232,7 @@
     </row>
     <row r="23" spans="1:46" x14ac:dyDescent="0.35">
       <c r="A23" s="4" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="B23" s="5">
         <v>0</v>
@@ -4372,7 +4372,7 @@
     </row>
     <row r="24" spans="1:46" x14ac:dyDescent="0.35">
       <c r="A24" s="4" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="B24" s="5">
         <v>3.4482758620689703E-2</v>
@@ -4512,7 +4512,7 @@
     </row>
     <row r="25" spans="1:46" x14ac:dyDescent="0.35">
       <c r="A25" s="4" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B25" s="5">
         <v>0</v>
@@ -4652,7 +4652,7 @@
     </row>
     <row r="26" spans="1:46" x14ac:dyDescent="0.35">
       <c r="A26" s="4" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B26" s="5">
         <v>3.0769230769230799E-2</v>
@@ -4792,7 +4792,7 @@
     </row>
     <row r="27" spans="1:46" x14ac:dyDescent="0.35">
       <c r="A27" s="4" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="B27" s="5">
         <v>0</v>
@@ -4932,7 +4932,7 @@
     </row>
     <row r="28" spans="1:46" x14ac:dyDescent="0.35">
       <c r="A28" s="4" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="B28" s="5">
         <v>0.4</v>
@@ -5072,7 +5072,7 @@
     </row>
     <row r="29" spans="1:46" x14ac:dyDescent="0.35">
       <c r="A29" s="4" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="B29" s="5">
         <v>0.33333333333333298</v>
@@ -5212,7 +5212,7 @@
     </row>
     <row r="30" spans="1:46" x14ac:dyDescent="0.35">
       <c r="A30" s="4" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="B30" s="5">
         <v>0</v>
@@ -5352,7 +5352,7 @@
     </row>
     <row r="31" spans="1:46" x14ac:dyDescent="0.35">
       <c r="A31" s="4" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="B31" s="5">
         <v>0</v>
@@ -5492,7 +5492,7 @@
     </row>
     <row r="32" spans="1:46" x14ac:dyDescent="0.35">
       <c r="A32" s="4" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="B32" s="5">
         <v>0</v>
@@ -5632,7 +5632,7 @@
     </row>
     <row r="33" spans="1:46" x14ac:dyDescent="0.35">
       <c r="A33" s="4" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="B33" s="5">
         <v>0</v>
@@ -5772,7 +5772,7 @@
     </row>
     <row r="34" spans="1:46" x14ac:dyDescent="0.35">
       <c r="A34" s="4" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="B34" s="5">
         <v>0</v>
@@ -5912,7 +5912,7 @@
     </row>
     <row r="35" spans="1:46" x14ac:dyDescent="0.35">
       <c r="A35" s="4" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="B35" s="5">
         <v>0</v>
@@ -6052,7 +6052,7 @@
     </row>
     <row r="36" spans="1:46" x14ac:dyDescent="0.35">
       <c r="A36" s="4" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="B36" s="5">
         <v>0.33333333333333298</v>
@@ -6192,7 +6192,7 @@
     </row>
     <row r="37" spans="1:46" x14ac:dyDescent="0.35">
       <c r="A37" s="4" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="B37" s="5">
         <v>0</v>
@@ -6332,7 +6332,7 @@
     </row>
     <row r="38" spans="1:46" x14ac:dyDescent="0.35">
       <c r="A38" s="4" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="B38" s="5">
         <v>0</v>
@@ -6472,7 +6472,7 @@
     </row>
     <row r="39" spans="1:46" x14ac:dyDescent="0.35">
       <c r="A39" s="4" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="B39" s="5">
         <v>0</v>
@@ -6612,7 +6612,7 @@
     </row>
     <row r="40" spans="1:46" x14ac:dyDescent="0.35">
       <c r="A40" s="4" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="B40" s="5">
         <v>4.2253521126760597E-2</v>
@@ -6752,7 +6752,7 @@
     </row>
     <row r="41" spans="1:46" x14ac:dyDescent="0.35">
       <c r="A41" s="4" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="B41" s="5">
         <v>4.1666666666666699E-2</v>
@@ -6892,7 +6892,7 @@
     </row>
     <row r="42" spans="1:46" x14ac:dyDescent="0.35">
       <c r="A42" s="4" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="B42" s="5">
         <v>0</v>
@@ -7032,7 +7032,7 @@
     </row>
     <row r="43" spans="1:46" x14ac:dyDescent="0.35">
       <c r="A43" s="4" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="B43" s="5">
         <v>0</v>
@@ -7172,7 +7172,7 @@
     </row>
     <row r="44" spans="1:46" x14ac:dyDescent="0.35">
       <c r="A44" s="4" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="B44" s="5">
         <v>2.6548672566371698E-2</v>
@@ -7312,7 +7312,7 @@
     </row>
     <row r="45" spans="1:46" x14ac:dyDescent="0.35">
       <c r="A45" s="4" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="B45" s="5">
         <v>2.4390243902439001E-2</v>
@@ -7452,7 +7452,7 @@
     </row>
     <row r="46" spans="1:46" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A46" s="4" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="B46" s="6">
         <v>6.25E-2</v>

--- a/figures/overlap.xlsx
+++ b/figures/overlap.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\aubre\Documents\BU Research\tbsp_malnutrition\figures\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DC1CD782-E479-4D50-BBEA-063D40205767}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B6900CEB-6834-459B-811A-BCD447A6082D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11020" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1144,8 +1144,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AT48"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="49" workbookViewId="0">
-      <selection activeCell="B25" sqref="B25"/>
+    <sheetView tabSelected="1" zoomScale="47" workbookViewId="0">
+      <selection activeCell="B47" sqref="B47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
